--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -906,35 +906,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -967,7 +967,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -982,32 +982,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1028,44 +1028,44 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>15</v>
@@ -1104,14 +1104,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
         <v>10</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
         <v>6</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -3483,14 +3483,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J50" t="n">
         <v>5</v>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -5933,7 +5933,7 @@
         <v>14</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -6091,47 +6091,47 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -6152,47 +6152,47 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6472,14 +6472,14 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>5</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -6488,16 +6488,16 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6533,32 +6533,32 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>5</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -6579,32 +6579,32 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -6640,38 +6640,38 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -7250,12 +7250,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7275,13 +7275,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -7311,22 +7311,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7387,32 +7387,32 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
         <v>3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
-      <c r="O114" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -7433,29 +7433,29 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -7494,38 +7494,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Wed, January 28th at 7:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -7633,27 +7633,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -860,32 +860,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -921,20 +921,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -982,17 +982,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1043,17 +1043,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1409,20 +1409,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1531,20 +1531,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1592,32 +1592,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2080,23 +2080,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -2141,14 +2141,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -2202,20 +2202,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2980,47 +2980,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
         <v>4</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -3041,47 +3041,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3117,32 +3117,32 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -3163,47 +3163,47 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
+        <v>14</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12</v>
+      </c>
+      <c r="J45" t="n">
         <v>7</v>
       </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
       <c r="K45" t="n">
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -3224,35 +3224,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -3483,20 +3483,20 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I50" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -3544,20 +3544,20 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -3605,20 +3605,20 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -3666,20 +3666,20 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -4017,32 +4017,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -4078,32 +4078,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -4139,38 +4139,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
         <v>3</v>
       </c>
-      <c r="I61" t="n">
-        <v>7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
       <c r="K61" t="n">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -4200,35 +4200,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -5923,17 +5923,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -5969,47 +5969,47 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
@@ -6030,47 +6030,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J92" t="n">
         <v>7</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
@@ -6091,32 +6091,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -6152,12 +6152,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6167,17 +6167,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
@@ -6213,36 +6213,36 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
         <v>4</v>
       </c>
-      <c r="J95" t="n">
-        <v>3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
@@ -6250,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6289,32 +6289,32 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6350,17 +6350,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n">
         <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -6396,47 +6396,47 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6472,23 +6472,23 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -6518,47 +6518,47 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -6579,47 +6579,47 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
@@ -6640,47 +6640,47 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -6701,47 +6701,47 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H103" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" t="n">
         <v>3</v>
       </c>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -6762,47 +6762,47 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H104" t="n">
+        <v>5</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" t="n">
         <v>3</v>
       </c>
-      <c r="I104" t="n">
-        <v>2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -6823,32 +6823,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -6884,47 +6884,47 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -6945,38 +6945,38 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7021,17 +7021,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -7067,29 +7067,29 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>2</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -7128,38 +7128,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -7189,12 +7189,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7204,14 +7204,14 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -7250,26 +7250,26 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -7278,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -7311,26 +7311,26 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -7372,22 +7372,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>13:40 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -7433,29 +7433,29 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>19:04 - 2nd Half</t>
         </is>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
         <v>9</v>
@@ -7494,26 +7494,26 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:08 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -7531,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -7581,24 +7581,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -7611,7 +7611,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -7620,27 +7620,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7650,7 +7650,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -540,38 +540,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -626,28 +626,28 @@
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,34 +681,34 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -742,34 +742,34 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -784,35 +784,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -906,47 +906,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1018,27 +1018,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,28 +1047,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1230,59 +1230,59 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1291,59 +1291,59 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>31</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dedan Thomas Jr.</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1384,27 +1384,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1455,47 +1455,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1638,35 +1638,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1699,32 +1699,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1797,102 +1797,102 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1901,100 +1901,100 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2026,36 +2026,36 @@
         <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2065,17 +2065,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,14 +2084,14 @@
         </is>
       </c>
       <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
         <v>3</v>
       </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -2105,38 +2105,38 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,19 +2145,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -2166,38 +2166,38 @@
         <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2206,28 +2206,28 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2248,38 +2248,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Dedan Thomas Jr.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2370,35 +2370,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2407,41 +2407,41 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2450,39 +2450,39 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
         <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>28</v>
@@ -2538,12 +2538,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2593,18 +2593,18 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2614,17 +2614,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -2654,18 +2654,18 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2675,17 +2675,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2694,39 +2694,39 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2736,17 +2736,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2755,28 +2755,28 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>5</v>
       </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
       <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>3</v>
       </c>
-      <c r="K38" t="n">
-        <v>3</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2787,57 +2787,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2848,57 +2848,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
       <c r="O40" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -2909,27 +2909,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>2</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2980,17 +2980,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3060,59 +3060,59 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3121,59 +3121,59 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3182,59 +3182,59 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
+        <v>6</v>
+      </c>
+      <c r="K45" t="n">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
-        <v>4</v>
-      </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3243,19 +3243,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
         <v>8</v>
       </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -3264,18 +3264,18 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3304,28 +3304,28 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3365,13 +3365,13 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3407,47 +3407,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>20</v>
+      </c>
+      <c r="I49" t="n">
+        <v>17</v>
+      </c>
+      <c r="J49" t="n">
         <v>9</v>
       </c>
-      <c r="I49" t="n">
-        <v>13</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
       <c r="K49" t="n">
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3487,28 +3487,28 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>14</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
         <v>9</v>
       </c>
-      <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
       <c r="L50" t="n">
         <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3529,47 +3529,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3590,36 +3590,36 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
         <v>3</v>
       </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3651,29 +3651,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3691,38 +3691,38 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CJ Ingram</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3731,39 +3731,39 @@
         </is>
       </c>
       <c r="H54" t="n">
+        <v>11</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
         <v>7</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
         <v>5</v>
       </c>
-      <c r="J54" t="n">
-        <v>2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3792,39 +3792,39 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Alex Lloyd</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3853,28 +3853,28 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -3885,57 +3885,57 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -3946,27 +3946,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3975,28 +3975,28 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J58" t="n">
+        <v>11</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
         <v>3</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
       <c r="O58" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -4007,57 +4007,57 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TENN@UGA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H59" t="n">
+        <v>9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
         <v>4</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6</v>
-      </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4097,17 +4097,17 @@
         </is>
       </c>
       <c r="H60" t="n">
+        <v>9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
         <v>3</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4158,28 +4158,28 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4200,78 +4200,78 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4280,74 +4280,74 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4356,44 +4356,44 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4402,39 +4402,39 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4444,58 +4444,58 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MSST@LSU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4524,28 +4524,28 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -4556,27 +4556,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>FLA@SC</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4585,13 +4585,13 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4646,28 +4646,28 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4688,17 +4688,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Alex Kovatchev</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4707,28 +4707,28 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4749,38 +4749,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TENN@UGA</t>
+          <t>MSST@LSU</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4810,17 +4810,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>TEX@AUB</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4829,16 +4829,16 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
+        <v>7</v>
+      </c>
+      <c r="J72" t="n">
         <v>3</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Eli Sparkman</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4890,19 +4890,19 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4969,16 +4969,16 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Olivier Rioux</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,34 +5012,34 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5054,17 +5054,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>TEX@AUB</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -5091,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5134,34 +5134,34 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O77" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Viktor Mikic</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,34 +5195,34 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5237,17 +5237,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -5271,19 +5271,19 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5298,17 +5298,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FLA@SC</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5317,19 +5317,19 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -5338,67 +5338,3788 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Preston Murphy Jr.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jacob Martin</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Luke Northweather</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Coleson Messer</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jaylon Dean-Vines</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Miles Keeffe</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Undrafted</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>21</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>20</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>10</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>19</v>
+      </c>
+      <c r="I102" t="n">
+        <v>17</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>15</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>12</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>12</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>11</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+      <c r="I108" t="n">
+        <v>14</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Eli Ellis</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+      <c r="I110" t="n">
+        <v>13</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sebastian Williams-Adams</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+      <c r="I114" t="n">
+        <v>8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CJ Ingram</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Robert Miller III</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>3</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>6</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Jalen Reece</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>MSST@LSU</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Blake Muschalek</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Alex Kovatchev</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Amaree Abram</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>TENN@UGA</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Christ Essandoko</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Eli Sparkman</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Nordin Kapic</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Olivier Rioux</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Simeon Wilcher</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>TEX@AUB</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Viktor Mikic</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>FLA@SC</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
         <is>
           <t>Mazi Mosley</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>LSU</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>MSST@LSU</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
         <v>-2</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5450,49 +9171,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5502,36 +9223,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>46</v>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" t="n">
         <v>21</v>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -429,7 +429,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9142,7 +9142,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
   </cols>
@@ -9167,7 +9167,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9180,7 +9180,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9193,7 +9193,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9206,7 +9206,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9219,7 +9219,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9232,7 +9232,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9245,7 +9245,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B8" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-28.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,14 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,7 +525,42 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>pf</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>fgm</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>fga</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>3pm</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>3pa</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ftm</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>fta</t>
         </is>
       </c>
     </row>
@@ -580,7 +622,28 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
         <v>30</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +704,28 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +786,28 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -763,7 +868,28 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
         <v>18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -824,7 +950,28 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
         <v>25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -885,7 +1032,28 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
         <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -946,7 +1114,28 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>38</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>18</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1007,7 +1196,28 @@
         <v>4</v>
       </c>
       <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
         <v>30</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1068,7 +1278,28 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
         <v>22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1129,7 +1360,28 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
         <v>24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1190,7 +1442,28 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>35</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1251,7 +1524,28 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
         <v>32</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1312,7 +1606,28 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
         <v>31</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1373,7 +1688,28 @@
         <v>2</v>
       </c>
       <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
         <v>31</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1434,7 +1770,28 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>26</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>12</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1495,7 +1852,28 @@
         <v>2</v>
       </c>
       <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
         <v>41</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1556,7 +1934,28 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
         <v>26</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1617,7 +2016,28 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
         <v>25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>12</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1678,7 +2098,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
         <v>35</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1739,7 +2180,28 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
         <v>16</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1800,7 +2262,28 @@
         <v>5</v>
       </c>
       <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
         <v>21</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1861,7 +2344,28 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>14</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1922,7 +2426,28 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
         <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1983,7 +2508,28 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
         <v>30</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>11</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2044,7 +2590,28 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
         <v>19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2105,7 +2672,28 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>12</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2166,7 +2754,28 @@
         <v>2</v>
       </c>
       <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
         <v>28</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2227,7 +2836,28 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2288,7 +2918,28 @@
         <v>2</v>
       </c>
       <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
         <v>36</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>7</v>
+      </c>
+      <c r="R30" t="n">
+        <v>13</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>14</v>
+      </c>
+      <c r="V30" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -2349,7 +3000,28 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>28</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" t="n">
+        <v>13</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2410,7 +3082,28 @@
         <v>2</v>
       </c>
       <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
         <v>23</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2471,7 +3164,28 @@
         <v>2</v>
       </c>
       <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
         <v>31</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>19</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2532,7 +3246,28 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
         <v>28</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>10</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2593,7 +3328,28 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
         <v>21</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2654,7 +3410,28 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
         <v>25</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2715,7 +3492,28 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
         <v>9</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2776,7 +3574,28 @@
         <v>3</v>
       </c>
       <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
         <v>15</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2837,7 +3656,28 @@
         <v>2</v>
       </c>
       <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
         <v>29</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2898,7 +3738,28 @@
         <v>3</v>
       </c>
       <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
         <v>27</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2959,7 +3820,28 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
         <v>24</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3020,7 +3902,28 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
         <v>22</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3081,7 +3984,28 @@
         <v>2</v>
       </c>
       <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
         <v>11</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3142,7 +4066,28 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>36</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>16</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3203,7 +4148,28 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
         <v>26</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3264,7 +4230,28 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
         <v>38</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>15</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3325,7 +4312,28 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
         <v>13</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3386,7 +4394,28 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" t="n">
         <v>32</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -3447,7 +4476,28 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
         <v>17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3508,7 +4558,28 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
         <v>33</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>6</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7</v>
+      </c>
+      <c r="U50" t="n">
+        <v>8</v>
+      </c>
+      <c r="V50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -3569,7 +4640,28 @@
         <v>1</v>
       </c>
       <c r="O51" t="n">
+        <v>4</v>
+      </c>
+      <c r="P51" t="n">
         <v>31</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>12</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -3630,7 +4722,28 @@
         <v>2</v>
       </c>
       <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
         <v>26</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3691,7 +4804,28 @@
         <v>2</v>
       </c>
       <c r="O53" t="n">
+        <v>5</v>
+      </c>
+      <c r="P53" t="n">
         <v>35</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>9</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>6</v>
+      </c>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -3752,7 +4886,28 @@
         <v>2</v>
       </c>
       <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
         <v>27</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -3813,7 +4968,28 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
         <v>29</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>7</v>
+      </c>
+      <c r="R55" t="n">
+        <v>11</v>
+      </c>
+      <c r="S55" t="n">
+        <v>7</v>
+      </c>
+      <c r="T55" t="n">
+        <v>10</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3874,7 +5050,28 @@
         <v>4</v>
       </c>
       <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="n">
         <v>28</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3935,7 +5132,28 @@
         <v>2</v>
       </c>
       <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
         <v>37</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>10</v>
+      </c>
+      <c r="R57" t="n">
+        <v>16</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="n">
+        <v>7</v>
+      </c>
+      <c r="U57" t="n">
+        <v>6</v>
+      </c>
+      <c r="V57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3996,7 +5214,28 @@
         <v>3</v>
       </c>
       <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
         <v>22</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>7</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4057,7 +5296,28 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="n">
         <v>28</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>8</v>
+      </c>
+      <c r="R59" t="n">
+        <v>10</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -4118,7 +5378,28 @@
         <v>2</v>
       </c>
       <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
         <v>26</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -4179,7 +5460,28 @@
         <v>2</v>
       </c>
       <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
         <v>35</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>10</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4240,7 +5542,28 @@
         <v>2</v>
       </c>
       <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
         <v>32</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>12</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>6</v>
+      </c>
+      <c r="U62" t="n">
+        <v>6</v>
+      </c>
+      <c r="V62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -4301,7 +5624,28 @@
         <v>2</v>
       </c>
       <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
         <v>37</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>16</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -4362,7 +5706,28 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
         <v>22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3</v>
+      </c>
+      <c r="U64" t="n">
+        <v>7</v>
+      </c>
+      <c r="V64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -4423,7 +5788,28 @@
         <v>2</v>
       </c>
       <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
         <v>35</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>12</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2</v>
+      </c>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -4484,7 +5870,28 @@
         <v>1</v>
       </c>
       <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
         <v>17</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4545,7 +5952,28 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
+        <v>2</v>
+      </c>
+      <c r="P67" t="n">
         <v>26</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>8</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>4</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4606,7 +6034,28 @@
         <v>2</v>
       </c>
       <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
         <v>28</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -4667,7 +6116,28 @@
         <v>1</v>
       </c>
       <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="n">
         <v>19</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4728,7 +6198,28 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
         <v>27</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>6</v>
+      </c>
+      <c r="R70" t="n">
+        <v>11</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4789,7 +6280,28 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
         <v>27</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4850,7 +6362,28 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" t="n">
         <v>36</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>10</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4911,7 +6444,28 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
+        <v>2</v>
+      </c>
+      <c r="P73" t="n">
         <v>18</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>6</v>
+      </c>
+      <c r="V73" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -4972,7 +6526,28 @@
         <v>2</v>
       </c>
       <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="n">
         <v>19</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -5033,7 +6608,28 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
+        <v>5</v>
+      </c>
+      <c r="P75" t="n">
         <v>21</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -5094,7 +6690,28 @@
         <v>2</v>
       </c>
       <c r="O76" t="n">
+        <v>2</v>
+      </c>
+      <c r="P76" t="n">
         <v>24</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -5155,7 +6772,28 @@
         <v>3</v>
       </c>
       <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
         <v>25</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>10</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -5216,7 +6854,28 @@
         <v>1</v>
       </c>
       <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
         <v>27</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -5277,7 +6936,28 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
         <v>7</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5338,7 +7018,28 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
         <v>19</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -5399,7 +7100,28 @@
         <v>1</v>
       </c>
       <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
         <v>20</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5460,7 +7182,28 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" t="n">
         <v>9</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -5521,7 +7264,28 @@
         <v>1</v>
       </c>
       <c r="O83" t="n">
+        <v>2</v>
+      </c>
+      <c r="P83" t="n">
         <v>17</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -5582,7 +7346,28 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -5643,7 +7428,28 @@
         <v>1</v>
       </c>
       <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
         <v>14</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5704,7 +7510,28 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
+        <v>2</v>
+      </c>
+      <c r="P86" t="n">
         <v>11</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5767,6 +7594,27 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5826,7 +7674,28 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5887,7 +7756,28 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
         <v>19</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="n">
+        <v>4</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5948,7 +7838,28 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
+        <v>2</v>
+      </c>
+      <c r="P90" t="n">
         <v>9</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -6009,7 +7920,28 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
+        <v>2</v>
+      </c>
+      <c r="P91" t="n">
         <v>11</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6070,7 +8002,28 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -6131,7 +8084,28 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
         <v>14</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -6192,7 +8166,28 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -6253,7 +8248,28 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -6314,7 +8330,28 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
         <v>8</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -6375,7 +8412,28 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
         <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -6436,7 +8494,28 @@
         <v>4</v>
       </c>
       <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
         <v>13</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="n">
+        <v>5</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -6497,7 +8576,28 @@
         <v>1</v>
       </c>
       <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
         <v>6</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -6558,7 +8658,28 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
+        <v>2</v>
+      </c>
+      <c r="P100" t="n">
         <v>32</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>8</v>
+      </c>
+      <c r="R100" t="n">
+        <v>14</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="n">
+        <v>8</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -6619,7 +8740,28 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
+        <v>2</v>
+      </c>
+      <c r="P101" t="n">
         <v>42</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>8</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -6680,7 +8822,28 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
+        <v>4</v>
+      </c>
+      <c r="P102" t="n">
         <v>38</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>6</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>6</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -6741,7 +8904,28 @@
         <v>3</v>
       </c>
       <c r="O103" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" t="n">
         <v>28</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>9</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6802,7 +8986,28 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
         <v>28</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>6</v>
+      </c>
+      <c r="V104" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -6863,7 +9068,28 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
+        <v>2</v>
+      </c>
+      <c r="P105" t="n">
         <v>20</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="n">
+        <v>6</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6924,7 +9150,28 @@
         <v>2</v>
       </c>
       <c r="O106" t="n">
+        <v>2</v>
+      </c>
+      <c r="P106" t="n">
         <v>27</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>8</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -6985,7 +9232,28 @@
         <v>1</v>
       </c>
       <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
         <v>13</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -7046,7 +9314,28 @@
         <v>2</v>
       </c>
       <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
         <v>20</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>9</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="n">
+        <v>4</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -7107,7 +9396,28 @@
         <v>1</v>
       </c>
       <c r="O109" t="n">
+        <v>3</v>
+      </c>
+      <c r="P109" t="n">
         <v>20</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7168,7 +9478,28 @@
         <v>2</v>
       </c>
       <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
         <v>26</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>10</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2</v>
+      </c>
+      <c r="U110" t="n">
+        <v>6</v>
+      </c>
+      <c r="V110" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -7229,7 +9560,28 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
+        <v>2</v>
+      </c>
+      <c r="P111" t="n">
         <v>32</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="112">
@@ -7290,7 +9642,28 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
+        <v>4</v>
+      </c>
+      <c r="P112" t="n">
         <v>12</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -7351,7 +9724,28 @@
         <v>0</v>
       </c>
       <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
         <v>12</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7412,7 +9806,28 @@
         <v>0</v>
       </c>
       <c r="O114" t="n">
+        <v>3</v>
+      </c>
+      <c r="P114" t="n">
         <v>12</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -7473,7 +9888,28 @@
         <v>0</v>
       </c>
       <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="n">
         <v>6</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7534,7 +9970,28 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
+        <v>2</v>
+      </c>
+      <c r="P116" t="n">
         <v>15</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7595,7 +10052,28 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
         <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7656,7 +10134,28 @@
         <v>1</v>
       </c>
       <c r="O118" t="n">
+        <v>3</v>
+      </c>
+      <c r="P118" t="n">
         <v>12</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7717,7 +10216,28 @@
         <v>1</v>
       </c>
       <c r="O119" t="n">
+        <v>5</v>
+      </c>
+      <c r="P119" t="n">
         <v>17</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -7778,7 +10298,28 @@
         <v>1</v>
       </c>
       <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="n">
         <v>17</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -7839,7 +10380,28 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
+        <v>2</v>
+      </c>
+      <c r="P121" t="n">
         <v>17</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -7900,7 +10462,28 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" t="n">
         <v>13</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7961,7 +10544,28 @@
         <v>0</v>
       </c>
       <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="n">
         <v>8</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -8022,7 +10626,28 @@
         <v>0</v>
       </c>
       <c r="O124" t="n">
+        <v>3</v>
+      </c>
+      <c r="P124" t="n">
         <v>10</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -8083,7 +10708,28 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="n">
         <v>6</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -8144,7 +10790,28 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
+        <v>4</v>
+      </c>
+      <c r="P126" t="n">
         <v>14</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -8205,7 +10872,28 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
         <v>7</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" t="n">
+        <v>1</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8266,7 +10954,28 @@
         <v>0</v>
       </c>
       <c r="O128" t="n">
+        <v>3</v>
+      </c>
+      <c r="P128" t="n">
         <v>24</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -8327,7 +11036,28 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
         <v>4</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -8388,7 +11118,28 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" t="n">
         <v>11</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" t="n">
+        <v>3</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -8449,7 +11200,28 @@
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -8510,7 +11282,28 @@
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -8571,7 +11364,28 @@
         <v>0</v>
       </c>
       <c r="O133" t="n">
+        <v>2</v>
+      </c>
+      <c r="P133" t="n">
         <v>7</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="n">
+        <v>4</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8632,7 +11446,28 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
         <v>4</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -8693,7 +11528,28 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8754,7 +11610,28 @@
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8815,7 +11692,28 @@
         <v>0</v>
       </c>
       <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
         <v>8</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -8876,7 +11774,28 @@
         <v>0</v>
       </c>
       <c r="O138" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" t="n">
         <v>5</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -8937,7 +11856,28 @@
         <v>0</v>
       </c>
       <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
         <v>4</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -8998,7 +11938,28 @@
         <v>1</v>
       </c>
       <c r="O140" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" t="n">
         <v>12</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>2</v>
+      </c>
+      <c r="R140" t="n">
+        <v>7</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -9059,7 +12020,28 @@
         <v>0</v>
       </c>
       <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
         <v>14</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
+      <c r="T141" t="n">
+        <v>4</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -9120,7 +12102,28 @@
         <v>2</v>
       </c>
       <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
         <v>8</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
